--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/LOUISIANA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/LOUISIANA_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D780"/>
+  <dimension ref="A1:D774"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C5">
@@ -439,12 +439,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C6">
@@ -457,7 +457,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C7">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C8">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9">
@@ -496,12 +496,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C10">
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C11">
@@ -527,12 +527,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C12">
@@ -545,7 +545,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C13">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C14">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>ESCÁRCEGA</t>
+          <t>Escárcega</t>
         </is>
       </c>
       <c r="C15">
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>HECELCHAKÁN</t>
+          <t>Hecelchakán</t>
         </is>
       </c>
       <c r="C16">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOPELCHÉN</t>
+          <t>Hopelchén</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18">
@@ -623,12 +623,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C19">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>ALTAMIRANO</t>
+          <t>Altamirano</t>
         </is>
       </c>
       <c r="C20">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>AMATÁN</t>
+          <t>Amatán</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>BENEMÉRITO DE LAS AMÉRICAS</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHENALHÓ</t>
+          <t>Chenalhó</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>CINTALAPA</t>
+          <t>Cintalapa</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>COAPILLA</t>
+          <t>Coapilla</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>El Porvenir</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRANCISCO LEÓN</t>
+          <t>Francisco León</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>IXTACOMITÁN</t>
+          <t>Ixtacomitán</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>JIQUIPILAS</t>
+          <t>Jiquipilas</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C43">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>MARQUÉS DE COMILLAS</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAZATÁN</t>
+          <t>Mazatán</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>OXCHUC</t>
+          <t>Oxchuc</t>
         </is>
       </c>
       <c r="C50">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C52">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO SOLISTAHUACÁN</t>
+          <t>Pueblo Nuevo Solistahuacán</t>
         </is>
       </c>
       <c r="C53">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>REFORMA</t>
+          <t>Reforma</t>
         </is>
       </c>
       <c r="C54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C56">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C57">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>SOYALÓ</t>
+          <t>Soyaló</t>
         </is>
       </c>
       <c r="C58">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>SUNUAPA</t>
+          <t>Sunuapa</t>
         </is>
       </c>
       <c r="C59">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C60">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>TAPILULA</t>
+          <t>Tapilula</t>
         </is>
       </c>
       <c r="C61">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>TILA</t>
+          <t>Tila</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C64">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>Tuxtla Chico</t>
         </is>
       </c>
       <c r="C65">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C66">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>TUZANTÁN</t>
+          <t>Tuzantán</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>UNIÓN JUÁREZ</t>
+          <t>Unión Juárez</t>
         </is>
       </c>
       <c r="C68">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C69">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>VILLAFLORES</t>
+          <t>Villaflores</t>
         </is>
       </c>
       <c r="C70">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C71">
@@ -1317,12 +1317,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ALDAMA</t>
+          <t>Aldama</t>
         </is>
       </c>
       <c r="C72">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C73">
@@ -1348,7 +1348,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>CORONADO</t>
+          <t>Coronado</t>
         </is>
       </c>
       <c r="C74">
@@ -1361,7 +1361,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C75">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>GUADALUPE Y CALVO</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C76">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>HIDALGO DEL PARRAL</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C77">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C78">
@@ -1413,7 +1413,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>MADERA</t>
+          <t>Madera</t>
         </is>
       </c>
       <c r="C79">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>MATACHÍ</t>
+          <t>Matachí</t>
         </is>
       </c>
       <c r="C80">
@@ -1439,7 +1439,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>NAMIQUIPA</t>
+          <t>Namiquipa</t>
         </is>
       </c>
       <c r="C81">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>OJINAGA</t>
+          <t>Ojinaga</t>
         </is>
       </c>
       <c r="C82">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>URUACHI</t>
+          <t>Uruachi</t>
         </is>
       </c>
       <c r="C83">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C84">
@@ -1491,12 +1491,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C85">
@@ -1509,7 +1509,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C86">
@@ -1522,7 +1522,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C87">
@@ -1535,7 +1535,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C88">
@@ -1548,7 +1548,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C89">
@@ -1561,7 +1561,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C90">
@@ -1574,7 +1574,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C91">
@@ -1587,7 +1587,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C92">
@@ -1600,7 +1600,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C93">
@@ -1613,7 +1613,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>MILPA ALTA</t>
+          <t>Milpa Alta</t>
         </is>
       </c>
       <c r="C94">
@@ -1626,7 +1626,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C95">
@@ -1639,7 +1639,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C96">
@@ -1652,7 +1652,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C97">
@@ -1665,7 +1665,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>XOCHIMILCO</t>
+          <t>Xochimilco</t>
         </is>
       </c>
       <c r="C98">
@@ -1678,7 +1678,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C99">
@@ -1691,7 +1691,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C100">
@@ -1704,12 +1704,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>Acuña</t>
         </is>
       </c>
       <c r="C101">
@@ -1722,7 +1722,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C102">
@@ -1735,7 +1735,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C103">
@@ -1748,7 +1748,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C104">
@@ -1761,7 +1761,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C105">
@@ -1774,7 +1774,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C106">
@@ -1787,7 +1787,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>MÚZQUIZ</t>
+          <t>Múzquiz</t>
         </is>
       </c>
       <c r="C107">
@@ -1800,7 +1800,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>PARRAS</t>
+          <t>Parras</t>
         </is>
       </c>
       <c r="C108">
@@ -1813,7 +1813,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>RAMOS ARIZPE</t>
+          <t>Ramos Arizpe</t>
         </is>
       </c>
       <c r="C109">
@@ -1826,7 +1826,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>SABINAS</t>
+          <t>Sabinas</t>
         </is>
       </c>
       <c r="C110">
@@ -1839,7 +1839,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>SALTILLO</t>
+          <t>Saltillo</t>
         </is>
       </c>
       <c r="C111">
@@ -1852,7 +1852,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>SAN BUENAVENTURA</t>
+          <t>San Buenaventura</t>
         </is>
       </c>
       <c r="C112">
@@ -1865,7 +1865,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>SAN JUAN DE SABINAS</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C113">
@@ -1878,7 +1878,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C114">
@@ -1891,7 +1891,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C115">
@@ -1904,7 +1904,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C116">
@@ -1917,12 +1917,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C117">
@@ -1935,7 +1935,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>COQUIMATLÁN</t>
+          <t>Coquimatlán</t>
         </is>
       </c>
       <c r="C118">
@@ -1948,7 +1948,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>TECOMÁN</t>
+          <t>Tecomán</t>
         </is>
       </c>
       <c r="C119">
@@ -1961,7 +1961,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C120">
@@ -1974,12 +1974,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C121">
@@ -1992,7 +1992,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C122">
@@ -2005,7 +2005,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C123">
@@ -2018,7 +2018,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>GÓMEZ PALACIO</t>
+          <t>Gómez Palacio</t>
         </is>
       </c>
       <c r="C124">
@@ -2031,7 +2031,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>LERDO</t>
+          <t>Lerdo</t>
         </is>
       </c>
       <c r="C125">
@@ -2044,7 +2044,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>MEZQUITAL</t>
+          <t>Mezquital</t>
         </is>
       </c>
       <c r="C126">
@@ -2057,7 +2057,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>NAZAS</t>
+          <t>Nazas</t>
         </is>
       </c>
       <c r="C127">
@@ -2070,7 +2070,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>PÁNUCO DE CORONADO</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C128">
@@ -2083,7 +2083,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>SAN DIMAS</t>
+          <t>San Dimas</t>
         </is>
       </c>
       <c r="C129">
@@ -2096,7 +2096,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>SAN JUAN DE GUADALUPE</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C130">
@@ -2109,7 +2109,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>TEPEHUANES</t>
+          <t>Tepehuanes</t>
         </is>
       </c>
       <c r="C131">
@@ -2122,7 +2122,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C132">
@@ -2135,7 +2135,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C133">
@@ -2148,12 +2148,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C134">
@@ -2166,7 +2166,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>ACOLMAN</t>
+          <t>Acolman</t>
         </is>
       </c>
       <c r="C135">
@@ -2179,7 +2179,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>ACULCO</t>
+          <t>Aculco</t>
         </is>
       </c>
       <c r="C136">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE ALQUISIRAS</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C137">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE JUÁREZ</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C138">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>AMATEPEC</t>
+          <t>Amatepec</t>
         </is>
       </c>
       <c r="C139">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C140">
@@ -2244,7 +2244,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>AYAPANGO</t>
+          <t>Ayapango</t>
         </is>
       </c>
       <c r="C141">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C142">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C143">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C144">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN</t>
+          <t>Cuautitlán</t>
         </is>
       </c>
       <c r="C145">
@@ -2309,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C146">
@@ -2322,7 +2322,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C147">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>HUIXQUILUCAN</t>
+          <t>Huixquilucan</t>
         </is>
       </c>
       <c r="C148">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>JOCOTITLÁN</t>
+          <t>Jocotitlán</t>
         </is>
       </c>
       <c r="C149">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C150">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C151">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>NICOLÁS ROMERO</t>
+          <t>Nicolás Romero</t>
         </is>
       </c>
       <c r="C152">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C153">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE LAS PIRÁMIDES</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>SULTEPEC</t>
+          <t>Sultepec</t>
         </is>
       </c>
       <c r="C155">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>TECÁMAC</t>
+          <t>Tecámac</t>
         </is>
       </c>
       <c r="C156">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C157">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C158">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C159">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>TEOLOYUCAN</t>
+          <t>Teoloyucan</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>TEOTIHUACÁN</t>
+          <t>Teotihuacán</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>TEPETLAOXTOC</t>
+          <t>Tepetlaoxtoc</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>TEPETLIXPA</t>
+          <t>Tepetlixpa</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C165">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>TLATLAYA</t>
+          <t>Tlatlaya</t>
         </is>
       </c>
       <c r="C166">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>TULTITLÁN</t>
+          <t>Tultitlán</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>VALLE DE CHALCO SOLIDARIDAD</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C169">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>VILLA DE ALLENDE</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C170">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>VILLA DEL CARBÓN</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C171">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>ZACAZONAPAN</t>
+          <t>Zacazonapan</t>
         </is>
       </c>
       <c r="C172">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C173">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,12 +2686,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C175">
@@ -2704,7 +2704,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C176">
@@ -2717,7 +2717,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>APASEO EL GRANDE</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C177">
@@ -2730,7 +2730,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C178">
@@ -2743,7 +2743,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>COMONFORT</t>
+          <t>Comonfort</t>
         </is>
       </c>
       <c r="C179">
@@ -2756,7 +2756,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>CORONEO</t>
+          <t>Coroneo</t>
         </is>
       </c>
       <c r="C180">
@@ -2769,7 +2769,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C181">
@@ -2782,7 +2782,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>CUERÁMARO</t>
+          <t>Cuerámaro</t>
         </is>
       </c>
       <c r="C182">
@@ -2795,7 +2795,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C183">
@@ -2808,7 +2808,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C184">
@@ -2821,7 +2821,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C185">
@@ -2834,7 +2834,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>JARAL DEL PROGRESO</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C186">
@@ -2847,7 +2847,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C187">
@@ -2860,7 +2860,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C188">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>MOROLEÓN</t>
+          <t>Moroleón</t>
         </is>
       </c>
       <c r="C189">
@@ -2886,7 +2886,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>ROMITA</t>
+          <t>Romita</t>
         </is>
       </c>
       <c r="C190">
@@ -2899,7 +2899,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C191">
@@ -2912,7 +2912,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C192">
@@ -2925,7 +2925,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE LA UNIÓN</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C193">
@@ -2938,7 +2938,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C194">
@@ -2951,7 +2951,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C195">
@@ -2964,7 +2964,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C196">
@@ -2977,7 +2977,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C197">
@@ -2990,7 +2990,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C198">
@@ -3003,7 +3003,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C199">
@@ -3016,7 +3016,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>SILAO DE LA VICTORIA</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C200">
@@ -3029,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>TARANDACUAO</t>
+          <t>Tarandacuao</t>
         </is>
       </c>
       <c r="C201">
@@ -3042,7 +3042,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
+          <t>Tarimoro</t>
         </is>
       </c>
       <c r="C202">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C203">
@@ -3068,7 +3068,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>Uriangato</t>
         </is>
       </c>
       <c r="C204">
@@ -3081,7 +3081,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C205">
@@ -3094,7 +3094,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C206">
@@ -3107,7 +3107,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C207">
@@ -3120,12 +3120,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C208">
@@ -3138,7 +3138,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>ACATEPEC</t>
+          <t>Acatepec</t>
         </is>
       </c>
       <c r="C209">
@@ -3151,7 +3151,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C210">
@@ -3164,7 +3164,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>APAXTLA</t>
+          <t>Apaxtla</t>
         </is>
       </c>
       <c r="C211">
@@ -3177,7 +3177,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C212">
@@ -3190,7 +3190,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>ATENANGO DEL RÍO</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C213">
@@ -3203,7 +3203,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C214">
@@ -3216,7 +3216,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C215">
@@ -3229,7 +3229,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>Azoyú</t>
         </is>
       </c>
       <c r="C216">
@@ -3242,7 +3242,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C217">
@@ -3255,7 +3255,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C218">
@@ -3268,7 +3268,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C219">
@@ -3281,7 +3281,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>COCHOAPA EL GRANDE</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C220">
@@ -3294,7 +3294,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>COPALILLO</t>
+          <t>Copalillo</t>
         </is>
       </c>
       <c r="C221">
@@ -3307,7 +3307,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>COPANATOYAC</t>
+          <t>Copanatoyac</t>
         </is>
       </c>
       <c r="C222">
@@ -3320,7 +3320,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C223">
@@ -3333,7 +3333,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C224">
@@ -3346,7 +3346,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>CUAJINICUILAPA</t>
+          <t>Cuajinicuilapa</t>
         </is>
       </c>
       <c r="C225">
@@ -3359,7 +3359,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>CUAUTEPEC</t>
+          <t>Cuautepec</t>
         </is>
       </c>
       <c r="C226">
@@ -3372,7 +3372,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>CUETZALA DEL PROGRESO</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C227">
@@ -3385,7 +3385,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>GENERAL CANUTO A. NERI</t>
+          <t>General Canuto A. Neri</t>
         </is>
       </c>
       <c r="C228">
@@ -3398,7 +3398,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>GENERAL HELIODORO CASTILLO</t>
+          <t>General Heliodoro Castillo</t>
         </is>
       </c>
       <c r="C229">
@@ -3411,7 +3411,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>HUAMUXTITLÁN</t>
+          <t>Huamuxtitlán</t>
         </is>
       </c>
       <c r="C230">
@@ -3424,7 +3424,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>HUITZUCO DE LOS FIGUEROA</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C231">
@@ -3437,7 +3437,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C232">
@@ -3450,7 +3450,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>IGUALAPA</t>
+          <t>Igualapa</t>
         </is>
       </c>
       <c r="C233">
@@ -3463,7 +3463,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C234">
@@ -3476,7 +3476,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>LA UNIÓN DE ISIDORO MONTES DE OCA</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C235">
@@ -3489,7 +3489,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C236">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>METLATÓNOC</t>
+          <t>Metlatónoc</t>
         </is>
       </c>
       <c r="C237">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C238">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>PEDRO ASCENCIO ALQUISIRAS</t>
+          <t>Pedro Ascencio Alquisiras</t>
         </is>
       </c>
       <c r="C239">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C240">
@@ -3554,7 +3554,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>PUNGARABATO</t>
+          <t>Pungarabato</t>
         </is>
       </c>
       <c r="C241">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C242">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C243">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C244">
@@ -3606,7 +3606,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>TAXCO DE ALARCÓN</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C245">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C246">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C248">
@@ -3658,7 +3658,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>TLACOAPA</t>
+          <t>Tlacoapa</t>
         </is>
       </c>
       <c r="C249">
@@ -3671,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C250">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>TLAPEHUALA</t>
+          <t>Tlapehuala</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>XALPATLÁHUAC</t>
+          <t>Xalpatláhuac</t>
         </is>
       </c>
       <c r="C253">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C255">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>ZIRÁNDARO</t>
+          <t>Zirándaro</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,12 +3775,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C258">
@@ -3793,7 +3793,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C259">
@@ -3806,7 +3806,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>CARDONAL</t>
+          <t>Cardonal</t>
         </is>
       </c>
       <c r="C260">
@@ -3819,7 +3819,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>CHAPULHUACÁN</t>
+          <t>Chapulhuacán</t>
         </is>
       </c>
       <c r="C261">
@@ -3832,7 +3832,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>CHILCUAUTLA</t>
+          <t>Chilcuautla</t>
         </is>
       </c>
       <c r="C262">
@@ -3845,7 +3845,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>CUAUTEPEC DE HINOJOSA</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C263">
@@ -3858,7 +3858,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C264">
@@ -3871,7 +3871,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>HUAZALINGO</t>
+          <t>Huazalingo</t>
         </is>
       </c>
       <c r="C265">
@@ -3884,7 +3884,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>HUEJUTLA DE REYES</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C266">
@@ -3897,7 +3897,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C267">
@@ -3910,7 +3910,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>JACALA DE LEDEZMA</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C268">
@@ -3923,7 +3923,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>JUÁREZ HIDALGO</t>
+          <t>Juárez Hidalgo</t>
         </is>
       </c>
       <c r="C269">
@@ -3936,7 +3936,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>LA MISIÓN</t>
+          <t>La Misión</t>
         </is>
       </c>
       <c r="C270">
@@ -3949,7 +3949,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C271">
@@ -3962,7 +3962,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>METZTITLÁN</t>
+          <t>Metztitlán</t>
         </is>
       </c>
       <c r="C272">
@@ -3975,7 +3975,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>MIXQUIAHUALA DE JUÁREZ</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C273">
@@ -3988,7 +3988,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>MOLANGO DE ESCAMILLA</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C274">
@@ -4001,7 +4001,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>NICOLÁS FLORES</t>
+          <t>Nicolás Flores</t>
         </is>
       </c>
       <c r="C275">
@@ -4014,7 +4014,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C276">
@@ -4027,7 +4027,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>PACULA</t>
+          <t>Pacula</t>
         </is>
       </c>
       <c r="C277">
@@ -4040,7 +4040,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>PISAFLORES</t>
+          <t>Pisaflores</t>
         </is>
       </c>
       <c r="C278">
@@ -4053,7 +4053,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C279">
@@ -4066,7 +4066,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN METZQUITITLÁN</t>
+          <t>San Agustín Metzquititlán</t>
         </is>
       </c>
       <c r="C280">
@@ -4079,7 +4079,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>SAN BARTOLO TUTOTEPEC</t>
+          <t>San Bartolo Tutotepec</t>
         </is>
       </c>
       <c r="C281">
@@ -4092,7 +4092,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>SAN FELIPE ORIZATLÁN</t>
+          <t>San Felipe Orizatlán</t>
         </is>
       </c>
       <c r="C282">
@@ -4105,7 +4105,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>SINGUILUCAN</t>
+          <t>Singuilucan</t>
         </is>
       </c>
       <c r="C283">
@@ -4118,7 +4118,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>TASQUILLO</t>
+          <t>Tasquillo</t>
         </is>
       </c>
       <c r="C284">
@@ -4131,7 +4131,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>TECOZAUTLA</t>
+          <t>Tecozautla</t>
         </is>
       </c>
       <c r="C285">
@@ -4144,7 +4144,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>TENANGO DE DORIA</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C286">
@@ -4157,7 +4157,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>TEPEHUACÁN DE GUERRERO</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C287">
@@ -4170,7 +4170,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>TEPEJI DEL RÍO DE OCAMPO</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C288">
@@ -4183,7 +4183,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>TEZONTEPEC DE ALDAMA</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C289">
@@ -4196,7 +4196,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>TIANGUISTENGO</t>
+          <t>Tianguistengo</t>
         </is>
       </c>
       <c r="C290">
@@ -4209,7 +4209,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>TLAHUILTEPA</t>
+          <t>Tlahuiltepa</t>
         </is>
       </c>
       <c r="C291">
@@ -4222,7 +4222,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>TLANCHINOL</t>
+          <t>Tlanchinol</t>
         </is>
       </c>
       <c r="C292">
@@ -4235,7 +4235,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>TLAXCOAPAN</t>
+          <t>Tlaxcoapan</t>
         </is>
       </c>
       <c r="C293">
@@ -4248,7 +4248,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C294">
@@ -4261,7 +4261,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>VILLA DE TEZONTEPEC</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C295">
@@ -4274,7 +4274,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C296">
@@ -4287,7 +4287,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C297">
@@ -4300,12 +4300,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>AMECA</t>
+          <t>Ameca</t>
         </is>
       </c>
       <c r="C298">
@@ -4318,7 +4318,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>ARANDAS</t>
+          <t>Arandas</t>
         </is>
       </c>
       <c r="C299">
@@ -4331,7 +4331,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL ALTO</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C300">
@@ -4344,7 +4344,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C301">
@@ -4357,7 +4357,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C302">
@@ -4370,7 +4370,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>CASIMIRO CASTILLO</t>
+          <t>Casimiro Castillo</t>
         </is>
       </c>
       <c r="C303">
@@ -4383,7 +4383,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>CUQUÍO</t>
+          <t>Cuquío</t>
         </is>
       </c>
       <c r="C304">
@@ -4396,7 +4396,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C305">
@@ -4409,7 +4409,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C306">
@@ -4422,7 +4422,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C307">
@@ -4435,7 +4435,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C308">
@@ -4448,7 +4448,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>JILOTLÁN DE LOS DOLORES</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C309">
@@ -4461,7 +4461,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C310">
@@ -4474,7 +4474,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C311">
@@ -4487,7 +4487,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>OCOTLÁN</t>
+          <t>Ocotlán</t>
         </is>
       </c>
       <c r="C312">
@@ -4500,7 +4500,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>OJUELOS DE JALISCO</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C313">
@@ -4513,7 +4513,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>PIHUAMO</t>
+          <t>Pihuamo</t>
         </is>
       </c>
       <c r="C314">
@@ -4526,7 +4526,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>QUITUPAN</t>
+          <t>Quitupan</t>
         </is>
       </c>
       <c r="C315">
@@ -4539,7 +4539,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>TALA</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C316">
@@ -4552,7 +4552,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>TALPA DE ALLENDE</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C317">
@@ -4565,7 +4565,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>TECALITLÁN</t>
+          <t>Tecalitlán</t>
         </is>
       </c>
       <c r="C318">
@@ -4578,7 +4578,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>TEOCALTICHE</t>
+          <t>Teocaltiche</t>
         </is>
       </c>
       <c r="C319">
@@ -4591,7 +4591,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C320">
@@ -4604,7 +4604,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C321">
@@ -4617,7 +4617,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C322">
@@ -4630,7 +4630,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>TONILA</t>
+          <t>Tonila</t>
         </is>
       </c>
       <c r="C323">
@@ -4643,7 +4643,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>TOTOTLÁN</t>
+          <t>Tototlán</t>
         </is>
       </c>
       <c r="C324">
@@ -4656,7 +4656,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>VILLA PURIFICACIÓN</t>
+          <t>Villa Purificación</t>
         </is>
       </c>
       <c r="C325">
@@ -4669,7 +4669,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>YAHUALICA DE GONZÁLEZ GALLO</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C326">
@@ -4682,7 +4682,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C327">
@@ -4695,7 +4695,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C328">
@@ -4708,12 +4708,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ACUITZIO</t>
+          <t>Acuitzio</t>
         </is>
       </c>
       <c r="C329">
@@ -4726,7 +4726,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C330">
@@ -4739,7 +4739,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>ARIO</t>
+          <t>Ario</t>
         </is>
       </c>
       <c r="C331">
@@ -4752,7 +4752,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="C332">
@@ -4765,7 +4765,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C333">
@@ -4778,7 +4778,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>CONTEPEC</t>
+          <t>Contepec</t>
         </is>
       </c>
       <c r="C334">
@@ -4791,7 +4791,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>GABRIEL ZAMORA</t>
+          <t>Gabriel Zamora</t>
         </is>
       </c>
       <c r="C335">
@@ -4804,7 +4804,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C336">
@@ -4817,7 +4817,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>HUETAMO</t>
+          <t>Huetamo</t>
         </is>
       </c>
       <c r="C337">
@@ -4830,7 +4830,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>IXTLÁN</t>
+          <t>Ixtlán</t>
         </is>
       </c>
       <c r="C338">
@@ -4843,7 +4843,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C339">
@@ -4856,7 +4856,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C340">
@@ -4869,7 +4869,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C341">
@@ -4882,7 +4882,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C342">
@@ -4895,7 +4895,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C343">
@@ -4908,7 +4908,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C344">
@@ -4921,7 +4921,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>NOCUPÉTARO</t>
+          <t>Nocupétaro</t>
         </is>
       </c>
       <c r="C345">
@@ -4934,7 +4934,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>NUEVO PARANGARICUTIRO</t>
+          <t>Nuevo Parangaricutiro</t>
         </is>
       </c>
       <c r="C346">
@@ -4947,7 +4947,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C347">
@@ -4960,7 +4960,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C348">
@@ -4973,7 +4973,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C349">
@@ -4986,7 +4986,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>QUERÉNDARO</t>
+          <t>Queréndaro</t>
         </is>
       </c>
       <c r="C350">
@@ -4999,7 +4999,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>QUIROGA</t>
+          <t>Quiroga</t>
         </is>
       </c>
       <c r="C351">
@@ -5012,7 +5012,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>SALVADOR ESCALANTE</t>
+          <t>Salvador Escalante</t>
         </is>
       </c>
       <c r="C352">
@@ -5025,7 +5025,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>SAN LUCAS</t>
+          <t>San Lucas</t>
         </is>
       </c>
       <c r="C353">
@@ -5038,7 +5038,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>SANTA ANA MAYA</t>
+          <t>Santa Ana Maya</t>
         </is>
       </c>
       <c r="C354">
@@ -5051,7 +5051,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>TACÁMBARO</t>
+          <t>Tacámbaro</t>
         </is>
       </c>
       <c r="C355">
@@ -5064,7 +5064,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>TANHUATO</t>
+          <t>Tanhuato</t>
         </is>
       </c>
       <c r="C356">
@@ -5077,7 +5077,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>TARÍMBARO</t>
+          <t>Tarímbaro</t>
         </is>
       </c>
       <c r="C357">
@@ -5090,7 +5090,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>TEPALCATEPEC</t>
+          <t>Tepalcatepec</t>
         </is>
       </c>
       <c r="C358">
@@ -5103,7 +5103,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>TINGAMBATO</t>
+          <t>Tingambato</t>
         </is>
       </c>
       <c r="C359">
@@ -5116,7 +5116,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>TIQUICHEO DE NICOLÁS ROMERO</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C360">
@@ -5129,7 +5129,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>TUMBISCATÍO</t>
+          <t>Tumbiscatío</t>
         </is>
       </c>
       <c r="C361">
@@ -5142,7 +5142,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C362">
@@ -5155,7 +5155,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>TZITZIO</t>
+          <t>Tzitzio</t>
         </is>
       </c>
       <c r="C363">
@@ -5168,7 +5168,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C364">
@@ -5181,7 +5181,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>VISTA HERMOSA</t>
+          <t>Vista Hermosa</t>
         </is>
       </c>
       <c r="C365">
@@ -5194,7 +5194,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>YURÉCUARO</t>
+          <t>Yurécuaro</t>
         </is>
       </c>
       <c r="C366">
@@ -5207,7 +5207,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C367">
@@ -5220,7 +5220,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C368">
@@ -5233,7 +5233,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C369">
@@ -5246,12 +5246,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>AYALA</t>
+          <t>Ayala</t>
         </is>
       </c>
       <c r="C370">
@@ -5264,7 +5264,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C371">
@@ -5277,7 +5277,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C372">
@@ -5290,7 +5290,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>JANTETELCO</t>
+          <t>Jantetelco</t>
         </is>
       </c>
       <c r="C373">
@@ -5303,7 +5303,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>JOJUTLA</t>
+          <t>Jojutla</t>
         </is>
       </c>
       <c r="C374">
@@ -5316,7 +5316,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>PUENTE DE IXTLA</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C375">
@@ -5329,7 +5329,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C376">
@@ -5342,7 +5342,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>YAUTEPEC</t>
+          <t>Yautepec</t>
         </is>
       </c>
       <c r="C377">
@@ -5355,7 +5355,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>YECAPIXTLA</t>
+          <t>Yecapixtla</t>
         </is>
       </c>
       <c r="C378">
@@ -5368,7 +5368,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>ZACATEPEC</t>
+          <t>Zacatepec</t>
         </is>
       </c>
       <c r="C379">
@@ -5381,7 +5381,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C380">
@@ -5394,12 +5394,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C381">
@@ -5412,7 +5412,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL ORO</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C382">
@@ -5425,7 +5425,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C383">
@@ -5438,7 +5438,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C384">
@@ -5451,7 +5451,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C385">
@@ -5464,7 +5464,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C386">
@@ -5477,12 +5477,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ARAMBERRI</t>
+          <t>Aramberri</t>
         </is>
       </c>
       <c r="C387">
@@ -5495,7 +5495,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>CERRALVO</t>
+          <t>Cerralvo</t>
         </is>
       </c>
       <c r="C388">
@@ -5508,7 +5508,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>China</t>
         </is>
       </c>
       <c r="C389">
@@ -5521,7 +5521,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>GALEANA</t>
+          <t>Galeana</t>
         </is>
       </c>
       <c r="C390">
@@ -5534,7 +5534,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>GENERAL TERÁN</t>
+          <t>General Terán</t>
         </is>
       </c>
       <c r="C391">
@@ -5547,7 +5547,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C392">
@@ -5560,7 +5560,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>LINARES</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="C393">
@@ -5573,7 +5573,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>MIER Y NORIEGA</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C394">
@@ -5586,7 +5586,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="C395">
@@ -5599,7 +5599,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>MONTEMORELOS</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C396">
@@ -5612,7 +5612,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C397">
@@ -5625,7 +5625,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS GARZA</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C398">
@@ -5638,7 +5638,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>SAN PEDRO GARZA GARCÍA</t>
+          <t>San Pedro Garza García</t>
         </is>
       </c>
       <c r="C399">
@@ -5651,7 +5651,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="C400">
@@ -5664,7 +5664,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>VALLECILLO</t>
+          <t>Vallecillo</t>
         </is>
       </c>
       <c r="C401">
@@ -5677,7 +5677,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C402">
@@ -5690,12 +5690,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>CANDELARIA LOXICHA</t>
+          <t>Candelaria Loxicha</t>
         </is>
       </c>
       <c r="C403">
@@ -5708,7 +5708,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>EL BARRIO DE LA SOLEDAD</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C404">
@@ -5721,7 +5721,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE EJUTLA DE CRESPO</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C405">
@@ -5734,7 +5734,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C406">
@@ -5747,7 +5747,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>Loma Bonita</t>
         </is>
       </c>
       <c r="C407">
@@ -5760,7 +5760,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C408">
@@ -5773,7 +5773,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN DE PORFIRIO DÍAZ</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C409">
@@ -5786,7 +5786,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>NEJAPA DE MADERO</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C410">
@@ -5799,7 +5799,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C411">
@@ -5812,7 +5812,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C412">
@@ -5825,7 +5825,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>OCOTLÁN DE MORELOS</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C413">
@@ -5838,7 +5838,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C414">
@@ -5851,7 +5851,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>SALINA CRUZ</t>
+          <t>Salina Cruz</t>
         </is>
       </c>
       <c r="C415">
@@ -5864,7 +5864,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN LOXICHA</t>
+          <t>San Agustín Loxicha</t>
         </is>
       </c>
       <c r="C416">
@@ -5877,7 +5877,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>SAN BALTAZAR LOXICHA</t>
+          <t>San Baltazar Loxicha</t>
         </is>
       </c>
       <c r="C417">
@@ -5890,7 +5890,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>SAN DIONISIO OCOTEPEC</t>
+          <t>San Dionisio Ocotepec</t>
         </is>
       </c>
       <c r="C418">
@@ -5903,7 +5903,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>SAN FELIPE USILA</t>
+          <t>San Felipe Usila</t>
         </is>
       </c>
       <c r="C419">
@@ -5916,7 +5916,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO IXHUATÁN</t>
+          <t>San Francisco Ixhuatán</t>
         </is>
       </c>
       <c r="C420">
@@ -5929,7 +5929,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO TAVICHE</t>
+          <t>San Jerónimo Taviche</t>
         </is>
       </c>
       <c r="C421">
@@ -5942,7 +5942,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>SAN JOSÉ CHILTEPEC</t>
+          <t>San José Chiltepec</t>
         </is>
       </c>
       <c r="C422">
@@ -5955,7 +5955,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA ATATLAHUCA</t>
+          <t>San Juan Bautista Atatlahuca</t>
         </is>
       </c>
       <c r="C423">
@@ -5968,7 +5968,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA COIXTLAHUACA</t>
+          <t>San Juan Bautista Coixtlahuaca</t>
         </is>
       </c>
       <c r="C424">
@@ -5981,7 +5981,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C425">
@@ -5994,7 +5994,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA VALLE NACIONAL</t>
+          <t>San Juan Bautista Valle Nacional</t>
         </is>
       </c>
       <c r="C426">
@@ -6007,7 +6007,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>SAN JUAN CIENEGUILLA</t>
+          <t>San Juan Cieneguilla</t>
         </is>
       </c>
       <c r="C427">
@@ -6020,7 +6020,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>SAN JUAN COLORADO</t>
+          <t>San Juan Colorado</t>
         </is>
       </c>
       <c r="C428">
@@ -6033,7 +6033,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>SAN JUAN COTZOCÓN</t>
+          <t>San Juan Cotzocón</t>
         </is>
       </c>
       <c r="C429">
@@ -6046,7 +6046,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>SAN JUAN GUICHICOVI</t>
+          <t>San Juan Guichicovi</t>
         </is>
       </c>
       <c r="C430">
@@ -6059,7 +6059,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>SAN JUAN LACHAO</t>
+          <t>San Juan Lachao</t>
         </is>
       </c>
       <c r="C431">
@@ -6072,7 +6072,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>SAN JUAN LACHIGALLA</t>
+          <t>San Juan Lachigalla</t>
         </is>
       </c>
       <c r="C432">
@@ -6085,7 +6085,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>SAN JUAN MAZATLÁN</t>
+          <t>San Juan Mazatlán</t>
         </is>
       </c>
       <c r="C433">
@@ -6098,7 +6098,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>SAN JUAN QUIAHIJE</t>
+          <t>San Juan Quiahije</t>
         </is>
       </c>
       <c r="C434">
@@ -6111,7 +6111,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>SAN JUAN TEITA</t>
+          <t>San Juan Teita</t>
         </is>
       </c>
       <c r="C435">
@@ -6124,7 +6124,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>SAN JUAN TEPEUXILA</t>
+          <t>San Juan Tepeuxila</t>
         </is>
       </c>
       <c r="C436">
@@ -6137,7 +6137,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>SAN LUIS AMATLÁN</t>
+          <t>San Luis Amatlán</t>
         </is>
       </c>
       <c r="C437">
@@ -6150,7 +6150,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE LOS CANSECOS</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C438">
@@ -6163,7 +6163,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>SAN MIGUEL PANIXTLAHUACA</t>
+          <t>San Miguel Panixtlahuaca</t>
         </is>
       </c>
       <c r="C439">
@@ -6176,7 +6176,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>SAN MIGUEL SOYALTEPEC</t>
+          <t>San Miguel Soyaltepec</t>
         </is>
       </c>
       <c r="C440">
@@ -6189,7 +6189,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TILQUIÁPAM</t>
+          <t>San Miguel Tilquiápam</t>
         </is>
       </c>
       <c r="C441">
@@ -6202,7 +6202,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS</t>
+          <t>San Nicolás</t>
         </is>
       </c>
       <c r="C442">
@@ -6215,7 +6215,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>SAN PEDRO JICAYÁN</t>
+          <t>San Pedro Jicayán</t>
         </is>
       </c>
       <c r="C443">
@@ -6228,7 +6228,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C444">
@@ -6241,7 +6241,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C445">
@@ -6254,7 +6254,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>SAN PEDRO TAVICHE</t>
+          <t>San Pedro Taviche</t>
         </is>
       </c>
       <c r="C446">
@@ -6267,7 +6267,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>SAN PEDRO TEUTILA</t>
+          <t>San Pedro Teutila</t>
         </is>
       </c>
       <c r="C447">
@@ -6280,7 +6280,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C448">
@@ -6293,7 +6293,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>SANTA MARÍA CHIMALAPA</t>
+          <t>Santa María Chimalapa</t>
         </is>
       </c>
       <c r="C449">
@@ -6306,7 +6306,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>SANTA MARÍA NATIVITAS</t>
+          <t>Santa María Nativitas</t>
         </is>
       </c>
       <c r="C450">
@@ -6319,7 +6319,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TLAHUITOLTEPEC</t>
+          <t>Santa María Tlahuitoltepec</t>
         </is>
       </c>
       <c r="C451">
@@ -6332,7 +6332,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TLALIXTAC</t>
+          <t>Santa María Tlalixtac</t>
         </is>
       </c>
       <c r="C452">
@@ -6345,7 +6345,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TONAMECA</t>
+          <t>Santa María Tonameca</t>
         </is>
       </c>
       <c r="C453">
@@ -6358,7 +6358,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TOTOLAPILLA</t>
+          <t>Santa María Totolapilla</t>
         </is>
       </c>
       <c r="C454">
@@ -6371,7 +6371,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ZACATEPEC</t>
+          <t>Santa María Zacatepec</t>
         </is>
       </c>
       <c r="C455">
@@ -6384,7 +6384,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ZOQUITLÁN</t>
+          <t>Santa María Zoquitlán</t>
         </is>
       </c>
       <c r="C456">
@@ -6397,7 +6397,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C457">
@@ -6410,7 +6410,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C458">
@@ -6423,7 +6423,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C459">
@@ -6436,7 +6436,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>SANTIAGO TETEPEC</t>
+          <t>Santiago Tetepec</t>
         </is>
       </c>
       <c r="C460">
@@ -6449,7 +6449,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>SANTIAGO YAITEPEC</t>
+          <t>Santiago Yaitepec</t>
         </is>
       </c>
       <c r="C461">
@@ -6462,7 +6462,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE MORELOS</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C462">
@@ -6475,7 +6475,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEHUANTEPEC</t>
+          <t>Santo Domingo Tehuantepec</t>
         </is>
       </c>
       <c r="C463">
@@ -6488,7 +6488,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEPUXTEPEC</t>
+          <t>Santo Domingo Tepuxtepec</t>
         </is>
       </c>
       <c r="C464">
@@ -6501,7 +6501,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C465">
@@ -6514,7 +6514,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>TOTONTEPEC VILLA DE MORELOS</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C466">
@@ -6527,7 +6527,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C467">
@@ -6540,7 +6540,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>VILLA DE ZAACHILA</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C468">
@@ -6553,7 +6553,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>ZIMATLÁN DE ÁLVAREZ</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C469">
@@ -6566,7 +6566,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C470">
@@ -6579,12 +6579,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>ACATZINGO</t>
+          <t>Acatzingo</t>
         </is>
       </c>
       <c r="C471">
@@ -6597,7 +6597,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C472">
@@ -6610,7 +6610,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>AQUIXTLA</t>
+          <t>Aquixtla</t>
         </is>
       </c>
       <c r="C473">
@@ -6623,7 +6623,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>ATEMPAN</t>
+          <t>Atempan</t>
         </is>
       </c>
       <c r="C474">
@@ -6636,7 +6636,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C475">
@@ -6649,7 +6649,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>ATOYATEMPAN</t>
+          <t>Atoyatempan</t>
         </is>
       </c>
       <c r="C476">
@@ -6662,7 +6662,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>AYOTOXCO DE GUERRERO</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C477">
@@ -6675,7 +6675,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>CALPAN</t>
+          <t>Calpan</t>
         </is>
       </c>
       <c r="C478">
@@ -6688,7 +6688,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>CHAPULCO</t>
+          <t>Chapulco</t>
         </is>
       </c>
       <c r="C479">
@@ -6701,7 +6701,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C480">
@@ -6714,7 +6714,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>CHICHIQUILA</t>
+          <t>Chichiquila</t>
         </is>
       </c>
       <c r="C481">
@@ -6727,7 +6727,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>CHIETLA</t>
+          <t>Chietla</t>
         </is>
       </c>
       <c r="C482">
@@ -6740,7 +6740,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C483">
@@ -6753,7 +6753,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>COHETZALA</t>
+          <t>Cohetzala</t>
         </is>
       </c>
       <c r="C484">
@@ -6766,7 +6766,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>CUETZALAN DEL PROGRESO</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C485">
@@ -6779,7 +6779,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>CUYOACO</t>
+          <t>Cuyoaco</t>
         </is>
       </c>
       <c r="C486">
@@ -6792,7 +6792,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>HERMENEGILDO GALEANA</t>
+          <t>Hermenegildo Galeana</t>
         </is>
       </c>
       <c r="C487">
@@ -6805,7 +6805,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C488">
@@ -6818,7 +6818,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL CHICO</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C489">
@@ -6831,7 +6831,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>HUEJOTZINGO</t>
+          <t>Huejotzingo</t>
         </is>
       </c>
       <c r="C490">
@@ -6844,7 +6844,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>HUEYAPAN</t>
+          <t>Hueyapan</t>
         </is>
       </c>
       <c r="C491">
@@ -6857,7 +6857,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>HUEYTAMALCO</t>
+          <t>Hueytamalco</t>
         </is>
       </c>
       <c r="C492">
@@ -6870,7 +6870,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>IXTACAMAXTITLÁN</t>
+          <t>Ixtacamaxtitlán</t>
         </is>
       </c>
       <c r="C493">
@@ -6883,7 +6883,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C494">
@@ -6896,7 +6896,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>JALPAN</t>
+          <t>Jalpan</t>
         </is>
       </c>
       <c r="C495">
@@ -6909,7 +6909,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>JOLALPAN</t>
+          <t>Jolalpan</t>
         </is>
       </c>
       <c r="C496">
@@ -6922,7 +6922,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>JONOTLA</t>
+          <t>Jonotla</t>
         </is>
       </c>
       <c r="C497">
@@ -6935,7 +6935,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>JUAN C. BONILLA</t>
+          <t>Juan C. Bonilla</t>
         </is>
       </c>
       <c r="C498">
@@ -6948,7 +6948,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>JUAN GALINDO</t>
+          <t>Juan Galindo</t>
         </is>
       </c>
       <c r="C499">
@@ -6961,7 +6961,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>LIBRES</t>
+          <t>Libres</t>
         </is>
       </c>
       <c r="C500">
@@ -6974,7 +6974,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>NAUPAN</t>
+          <t>Naupan</t>
         </is>
       </c>
       <c r="C501">
@@ -6987,7 +6987,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>ORIENTAL</t>
+          <t>Oriental</t>
         </is>
       </c>
       <c r="C502">
@@ -7000,7 +7000,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>PAHUATLÁN</t>
+          <t>Pahuatlán</t>
         </is>
       </c>
       <c r="C503">
@@ -7013,7 +7013,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>PALMAR DE BRAVO</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C504">
@@ -7026,7 +7026,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>PANTEPEC</t>
+          <t>Pantepec</t>
         </is>
       </c>
       <c r="C505">
@@ -7039,7 +7039,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>PETLALCINGO</t>
+          <t>Petlalcingo</t>
         </is>
       </c>
       <c r="C506">
@@ -7052,7 +7052,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C507">
@@ -7065,7 +7065,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>QUECHOLAC</t>
+          <t>Quecholac</t>
         </is>
       </c>
       <c r="C508">
@@ -7078,7 +7078,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>QUIMIXTLÁN</t>
+          <t>Quimixtlán</t>
         </is>
       </c>
       <c r="C509">
@@ -7091,7 +7091,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CHOLULA</t>
+          <t>San Andrés Cholula</t>
         </is>
       </c>
       <c r="C510">
@@ -7104,7 +7104,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>SAN MATÍAS TLALANCALECA</t>
+          <t>San Matías Tlalancaleca</t>
         </is>
       </c>
       <c r="C511">
@@ -7117,7 +7117,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C512">
@@ -7130,7 +7130,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C513">
@@ -7143,7 +7143,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C514">
@@ -7156,7 +7156,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C515">
@@ -7169,7 +7169,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C516">
@@ -7182,7 +7182,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>TEPEYAHUALCO</t>
+          <t>Tepeyahualco</t>
         </is>
       </c>
       <c r="C517">
@@ -7195,7 +7195,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>TEPEYAHUALCO DE CUAUHTÉMOC</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C518">
@@ -7208,7 +7208,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C519">
@@ -7221,7 +7221,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C520">
@@ -7234,7 +7234,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C521">
@@ -7247,7 +7247,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C522">
@@ -7260,7 +7260,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C523">
@@ -7273,7 +7273,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C524">
@@ -7286,7 +7286,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>XIUTETELCO</t>
+          <t>Xiutetelco</t>
         </is>
       </c>
       <c r="C525">
@@ -7299,7 +7299,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>YEHUALTEPEC</t>
+          <t>Yehualtepec</t>
         </is>
       </c>
       <c r="C526">
@@ -7312,7 +7312,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>ZACAPALA</t>
+          <t>Zacapala</t>
         </is>
       </c>
       <c r="C527">
@@ -7325,7 +7325,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C528">
@@ -7338,7 +7338,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C529">
@@ -7351,7 +7351,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>ZAUTLA</t>
+          <t>Zautla</t>
         </is>
       </c>
       <c r="C530">
@@ -7364,7 +7364,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>ZIHUATEUTLA</t>
+          <t>Zihuateutla</t>
         </is>
       </c>
       <c r="C531">
@@ -7377,7 +7377,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>ZOQUITLÁN</t>
+          <t>Zoquitlán</t>
         </is>
       </c>
       <c r="C532">
@@ -7390,7 +7390,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C533">
@@ -7403,12 +7403,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C534">
@@ -7421,7 +7421,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>ARROYO SECO</t>
+          <t>Arroyo Seco</t>
         </is>
       </c>
       <c r="C535">
@@ -7434,7 +7434,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C536">
@@ -7447,7 +7447,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>COLÓN</t>
+          <t>Colón</t>
         </is>
       </c>
       <c r="C537">
@@ -7460,7 +7460,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>CORREGIDORA</t>
+          <t>Corregidora</t>
         </is>
       </c>
       <c r="C538">
@@ -7473,7 +7473,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>HUIMILPAN</t>
+          <t>Huimilpan</t>
         </is>
       </c>
       <c r="C539">
@@ -7486,7 +7486,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C540">
@@ -7499,7 +7499,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>LANDA DE MATAMOROS</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C541">
@@ -7512,7 +7512,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>PEDRO ESCOBEDO</t>
+          <t>Pedro Escobedo</t>
         </is>
       </c>
       <c r="C542">
@@ -7525,7 +7525,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C543">
@@ -7538,7 +7538,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C544">
@@ -7551,7 +7551,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C545">
@@ -7564,7 +7564,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C546">
@@ -7577,12 +7577,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C547">
@@ -7595,7 +7595,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>COZUMEL</t>
+          <t>Cozumel</t>
         </is>
       </c>
       <c r="C548">
@@ -7608,7 +7608,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>JOSÉ MARÍA MORELOS</t>
+          <t>José María Morelos</t>
         </is>
       </c>
       <c r="C549">
@@ -7621,7 +7621,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C550">
@@ -7634,7 +7634,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C551">
@@ -7647,12 +7647,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>AHUALULCO</t>
+          <t>Ahualulco</t>
         </is>
       </c>
       <c r="C552">
@@ -7665,7 +7665,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>ALAQUINES</t>
+          <t>Alaquines</t>
         </is>
       </c>
       <c r="C553">
@@ -7678,7 +7678,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>AQUISMÓN</t>
+          <t>Aquismón</t>
         </is>
       </c>
       <c r="C554">
@@ -7691,7 +7691,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>AXTLA DE TERRAZAS</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C555">
@@ -7704,7 +7704,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>CERRITOS</t>
+          <t>Cerritos</t>
         </is>
       </c>
       <c r="C556">
@@ -7717,7 +7717,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>CIUDAD DEL MAÍZ</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C557">
@@ -7730,7 +7730,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>CIUDAD FERNÁNDEZ</t>
+          <t>Ciudad Fernández</t>
         </is>
       </c>
       <c r="C558">
@@ -7743,7 +7743,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C559">
@@ -7756,7 +7756,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>COXCATLÁN</t>
+          <t>Coxcatlán</t>
         </is>
       </c>
       <c r="C560">
@@ -7769,7 +7769,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C561">
@@ -7782,7 +7782,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C562">
@@ -7795,7 +7795,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>GUADALCÁZAR</t>
+          <t>Guadalcázar</t>
         </is>
       </c>
       <c r="C563">
@@ -7808,7 +7808,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>LAGUNILLAS</t>
+          <t>Lagunillas</t>
         </is>
       </c>
       <c r="C564">
@@ -7821,7 +7821,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>MATEHUALA</t>
+          <t>Matehuala</t>
         </is>
       </c>
       <c r="C565">
@@ -7834,7 +7834,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>MEXQUITIC DE CARMONA</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C566">
@@ -7847,7 +7847,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>MOCTEZUMA</t>
+          <t>Moctezuma</t>
         </is>
       </c>
       <c r="C567">
@@ -7860,7 +7860,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>RAYÓN</t>
+          <t>Rayón</t>
         </is>
       </c>
       <c r="C568">
@@ -7873,7 +7873,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C569">
@@ -7886,7 +7886,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="C570">
@@ -7899,7 +7899,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C571">
@@ -7912,7 +7912,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>SAN MARTÍN CHALCHICUAUTLA</t>
+          <t>San Martín Chalchicuautla</t>
         </is>
       </c>
       <c r="C572">
@@ -7925,7 +7925,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS TOLENTINO</t>
+          <t>San Nicolás Tolentino</t>
         </is>
       </c>
       <c r="C573">
@@ -7938,7 +7938,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>SAN VICENTE TANCUAYALAB</t>
+          <t>San Vicente Tancuayalab</t>
         </is>
       </c>
       <c r="C574">
@@ -7951,7 +7951,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>SANTA CATARINA</t>
+          <t>Santa Catarina</t>
         </is>
       </c>
       <c r="C575">
@@ -7964,7 +7964,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL RÍO</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C576">
@@ -7977,7 +7977,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>TAMASOPO</t>
+          <t>Tamasopo</t>
         </is>
       </c>
       <c r="C577">
@@ -7990,7 +7990,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>TAMAZUNCHALE</t>
+          <t>Tamazunchale</t>
         </is>
       </c>
       <c r="C578">
@@ -8003,7 +8003,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>TAMUÍN</t>
+          <t>Tamuín</t>
         </is>
       </c>
       <c r="C579">
@@ -8016,7 +8016,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>TANCANHUITZ</t>
+          <t>Tancanhuitz</t>
         </is>
       </c>
       <c r="C580">
@@ -8029,7 +8029,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>TANLAJÁS</t>
+          <t>Tanlajás</t>
         </is>
       </c>
       <c r="C581">
@@ -8042,7 +8042,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>TIERRA NUEVA</t>
+          <t>Tierra Nueva</t>
         </is>
       </c>
       <c r="C582">
@@ -8055,7 +8055,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>VENADO</t>
+          <t>Venado</t>
         </is>
       </c>
       <c r="C583">
@@ -8068,7 +8068,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>VILLA DE ARRIAGA</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C584">
@@ -8081,7 +8081,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>VILLA DE GUADALUPE</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C585">
@@ -8094,7 +8094,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C586">
@@ -8107,7 +8107,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C587">
@@ -8120,7 +8120,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>VILLA JUÁREZ</t>
+          <t>Villa Juárez</t>
         </is>
       </c>
       <c r="C588">
@@ -8133,7 +8133,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>XILITLA</t>
+          <t>Xilitla</t>
         </is>
       </c>
       <c r="C589">
@@ -8146,7 +8146,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C590">
@@ -8159,7 +8159,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C591">
@@ -8172,12 +8172,12 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C592">
@@ -8190,7 +8190,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>CHOIX</t>
+          <t>Choix</t>
         </is>
       </c>
       <c r="C593">
@@ -8203,7 +8203,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C594">
@@ -8216,7 +8216,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>EL FUERTE</t>
+          <t>El Fuerte</t>
         </is>
       </c>
       <c r="C595">
@@ -8229,7 +8229,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>ESCUINAPA</t>
+          <t>Escuinapa</t>
         </is>
       </c>
       <c r="C596">
@@ -8242,7 +8242,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C597">
@@ -8255,7 +8255,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>MAZATLÁN</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="C598">
@@ -8268,7 +8268,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C599">
@@ -8281,7 +8281,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>SALVADOR ALVARADO</t>
+          <t>Salvador Alvarado</t>
         </is>
       </c>
       <c r="C600">
@@ -8294,7 +8294,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C601">
@@ -8307,7 +8307,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C602">
@@ -8320,12 +8320,12 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C603">
@@ -8338,7 +8338,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>CARBÓ</t>
+          <t>Carbó</t>
         </is>
       </c>
       <c r="C604">
@@ -8351,7 +8351,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C605">
@@ -8364,7 +8364,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>NAVOJOA</t>
+          <t>Navojoa</t>
         </is>
       </c>
       <c r="C606">
@@ -8377,7 +8377,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>SAN LUIS RÍO COLORADO</t>
+          <t>San Luis Río Colorado</t>
         </is>
       </c>
       <c r="C607">
@@ -8390,7 +8390,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C608">
@@ -8403,12 +8403,12 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C609">
@@ -8421,7 +8421,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>CENTLA</t>
+          <t>Centla</t>
         </is>
       </c>
       <c r="C610">
@@ -8434,7 +8434,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C611">
@@ -8447,7 +8447,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>COMALCALCO</t>
+          <t>Comalcalco</t>
         </is>
       </c>
       <c r="C612">
@@ -8460,7 +8460,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>CUNDUACÁN</t>
+          <t>Cunduacán</t>
         </is>
       </c>
       <c r="C613">
@@ -8473,7 +8473,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C614">
@@ -8486,7 +8486,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C615">
@@ -8499,7 +8499,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>JALAPA</t>
+          <t>Jalapa</t>
         </is>
       </c>
       <c r="C616">
@@ -8512,7 +8512,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>JALPA DE MÉNDEZ</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C617">
@@ -8525,7 +8525,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>MACUSPANA</t>
+          <t>Macuspana</t>
         </is>
       </c>
       <c r="C618">
@@ -8538,7 +8538,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>PARAÍSO</t>
+          <t>Paraíso</t>
         </is>
       </c>
       <c r="C619">
@@ -8551,7 +8551,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>TENOSIQUE</t>
+          <t>Tenosique</t>
         </is>
       </c>
       <c r="C620">
@@ -8564,7 +8564,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C621">
@@ -8577,12 +8577,12 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C622">
@@ -8595,7 +8595,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>ALDAMA</t>
+          <t>Aldama</t>
         </is>
       </c>
       <c r="C623">
@@ -8608,7 +8608,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>ALTAMIRA</t>
+          <t>Altamira</t>
         </is>
       </c>
       <c r="C624">
@@ -8621,7 +8621,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>BURGOS</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="C625">
@@ -8634,7 +8634,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>BUSTAMANTE</t>
+          <t>Bustamante</t>
         </is>
       </c>
       <c r="C626">
@@ -8647,7 +8647,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>CIUDAD MADERO</t>
+          <t>Ciudad Madero</t>
         </is>
       </c>
       <c r="C627">
@@ -8660,7 +8660,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C628">
@@ -8673,7 +8673,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>GONZÁLEZ</t>
+          <t>González</t>
         </is>
       </c>
       <c r="C629">
@@ -8686,7 +8686,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>GUSTAVO DÍAZ ORDAZ</t>
+          <t>Gustavo Díaz Ordaz</t>
         </is>
       </c>
       <c r="C630">
@@ -8699,7 +8699,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C631">
@@ -8712,7 +8712,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>LLERA</t>
+          <t>Llera</t>
         </is>
       </c>
       <c r="C632">
@@ -8725,7 +8725,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C633">
@@ -8738,7 +8738,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>MIGUEL ALEMÁN</t>
+          <t>Miguel Alemán</t>
         </is>
       </c>
       <c r="C634">
@@ -8751,7 +8751,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C635">
@@ -8764,7 +8764,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C636">
@@ -8777,7 +8777,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>RÍO BRAVO</t>
+          <t>Río Bravo</t>
         </is>
       </c>
       <c r="C637">
@@ -8790,7 +8790,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="C638">
@@ -8803,7 +8803,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C639">
@@ -8816,7 +8816,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>TULA</t>
+          <t>Tula</t>
         </is>
       </c>
       <c r="C640">
@@ -8829,7 +8829,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>VALLE HERMOSO</t>
+          <t>Valle Hermoso</t>
         </is>
       </c>
       <c r="C641">
@@ -8842,7 +8842,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C642">
@@ -8855,7 +8855,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>XICOTÉNCATL</t>
+          <t>Xicoténcatl</t>
         </is>
       </c>
       <c r="C643">
@@ -8868,7 +8868,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C644">
@@ -8881,12 +8881,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>ATLANGATEPEC</t>
+          <t>Atlangatepec</t>
         </is>
       </c>
       <c r="C645">
@@ -8899,7 +8899,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C646">
@@ -8912,7 +8912,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C647">
@@ -8925,7 +8925,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>NANACAMILPA DE MARIANO ARISTA</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C648">
@@ -8938,7 +8938,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>SANCTÓRUM DE LÁZARO CÁRDENAS</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C649">
@@ -8951,7 +8951,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>TETLATLAHUCA</t>
+          <t>Tetlatlahuca</t>
         </is>
       </c>
       <c r="C650">
@@ -8964,7 +8964,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C651">
@@ -8977,7 +8977,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C652">
@@ -8990,12 +8990,12 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C653">
@@ -9008,7 +9008,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>ACAYUCAN</t>
+          <t>Acayucan</t>
         </is>
       </c>
       <c r="C654">
@@ -9021,7 +9021,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C655">
@@ -9034,7 +9034,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>ALPATLÁHUAC</t>
+          <t>Alpatláhuac</t>
         </is>
       </c>
       <c r="C656">
@@ -9047,7 +9047,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C657">
@@ -9060,7 +9060,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>ALVARADO</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="C658">
@@ -9073,7 +9073,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>ANGEL R. CABADA</t>
+          <t>Angel R. Cabada</t>
         </is>
       </c>
       <c r="C659">
@@ -9086,7 +9086,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
+          <t>Atzalan</t>
         </is>
       </c>
       <c r="C660">
@@ -9099,7 +9099,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>CAMARÓN DE TEJEDA</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C661">
@@ -9112,7 +9112,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>CASTILLO DE TEAYO</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C662">
@@ -9125,7 +9125,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>CATEMACO</t>
+          <t>Catemaco</t>
         </is>
       </c>
       <c r="C663">
@@ -9138,7 +9138,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>CAZONES DE HERRERA</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C664">
@@ -9151,7 +9151,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>CHICONTEPEC</t>
+          <t>Chicontepec</t>
         </is>
       </c>
       <c r="C665">
@@ -9164,7 +9164,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>CITLALTÉPETL</t>
+          <t>Citlaltépetl</t>
         </is>
       </c>
       <c r="C666">
@@ -9177,7 +9177,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>COATEPEC</t>
+          <t>Coatepec</t>
         </is>
       </c>
       <c r="C667">
@@ -9190,7 +9190,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C668">
@@ -9203,7 +9203,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>COLIPA</t>
+          <t>Colipa</t>
         </is>
       </c>
       <c r="C669">
@@ -9216,7 +9216,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C670">
@@ -9229,7 +9229,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>COSAUTLÁN DE CARVAJAL</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C671">
@@ -9242,7 +9242,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C672">
@@ -9255,7 +9255,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>COTAXTLA</t>
+          <t>Cotaxtla</t>
         </is>
       </c>
       <c r="C673">
@@ -9268,7 +9268,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>COYUTLA</t>
+          <t>Coyutla</t>
         </is>
       </c>
       <c r="C674">
@@ -9281,7 +9281,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C675">
@@ -9294,7 +9294,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C676">
@@ -9307,7 +9307,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>ESPINAL</t>
+          <t>Espinal</t>
         </is>
       </c>
       <c r="C677">
@@ -9320,7 +9320,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C678">
@@ -9333,7 +9333,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C679">
@@ -9346,7 +9346,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>HUAYACOCOTLA</t>
+          <t>Huayacocotla</t>
         </is>
       </c>
       <c r="C680">
@@ -9359,7 +9359,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C681">
@@ -9372,7 +9372,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C682">
@@ -9385,7 +9385,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>ISLA</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C683">
@@ -9398,7 +9398,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>IXCATEPEC</t>
+          <t>Ixcatepec</t>
         </is>
       </c>
       <c r="C684">
@@ -9411,7 +9411,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>IXHUACÁN DE LOS REYES</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C685">
@@ -9424,7 +9424,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DE MADERO</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C686">
@@ -9437,7 +9437,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DEL CAFÉ</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C687">
@@ -9450,7 +9450,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DEL SURESTE</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C688">
@@ -9463,7 +9463,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>IXTACZOQUITLÁN</t>
+          <t>Ixtaczoquitlán</t>
         </is>
       </c>
       <c r="C689">
@@ -9476,7 +9476,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>JALACINGO</t>
+          <t>Jalacingo</t>
         </is>
       </c>
       <c r="C690">
@@ -9489,7 +9489,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C691">
@@ -9502,7 +9502,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>JOSÉ AZUETA</t>
+          <t>José Azueta</t>
         </is>
       </c>
       <c r="C692">
@@ -9515,7 +9515,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C693">
@@ -9528,7 +9528,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>JÁLTIPAN</t>
+          <t>Jáltipan</t>
         </is>
       </c>
       <c r="C694">
@@ -9541,7 +9541,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C695">
@@ -9554,7 +9554,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>LERDO DE TEJADA</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C696">
@@ -9567,7 +9567,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C697">
@@ -9580,7 +9580,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C698">
@@ -9593,7 +9593,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>MISANTLA</t>
+          <t>Misantla</t>
         </is>
       </c>
       <c r="C699">
@@ -9606,7 +9606,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>NAOLINCO</t>
+          <t>Naolinco</t>
         </is>
       </c>
       <c r="C700">
@@ -9619,7 +9619,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>NARANJOS AMATLÁN</t>
+          <t>Naranjos Amatlán</t>
         </is>
       </c>
       <c r="C701">
@@ -9632,7 +9632,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>NAUTLA</t>
+          <t>Nautla</t>
         </is>
       </c>
       <c r="C702">
@@ -9645,7 +9645,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C703">
@@ -9658,7 +9658,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C704">
@@ -9671,7 +9671,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C705">
@@ -9684,7 +9684,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>OZULUAMA DE MASCAREÑAS</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C706">
@@ -9697,7 +9697,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>PAJAPAN</t>
+          <t>Pajapan</t>
         </is>
       </c>
       <c r="C707">
@@ -9710,7 +9710,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C708">
@@ -9723,7 +9723,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>PASO DEL MACHO</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C709">
@@ -9736,7 +9736,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>PEROTE</t>
+          <t>Perote</t>
         </is>
       </c>
       <c r="C710">
@@ -9749,7 +9749,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C711">
@@ -9762,7 +9762,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C712">
@@ -9775,7 +9775,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>PUEBLO VIEJO</t>
+          <t>Pueblo Viejo</t>
         </is>
       </c>
       <c r="C713">
@@ -9788,7 +9788,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>PÁNUCO</t>
+          <t>Pánuco</t>
         </is>
       </c>
       <c r="C714">
@@ -9801,7 +9801,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>RAFAEL LUCIO</t>
+          <t>Rafael Lucio</t>
         </is>
       </c>
       <c r="C715">
@@ -9814,7 +9814,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>RÍO BLANCO</t>
+          <t>Río Blanco</t>
         </is>
       </c>
       <c r="C716">
@@ -9827,7 +9827,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C717">
@@ -9840,7 +9840,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C718">
@@ -9853,7 +9853,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>SANTIAGO TUXTLA</t>
+          <t>Santiago Tuxtla</t>
         </is>
       </c>
       <c r="C719">
@@ -9866,7 +9866,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>SAYULA DE ALEMÁN</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C720">
@@ -9879,7 +9879,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>SOLEDAD DE DOBLADO</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C721">
@@ -9892,7 +9892,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>SOTEAPAN</t>
+          <t>Soteapan</t>
         </is>
       </c>
       <c r="C722">
@@ -9905,7 +9905,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>TAMPICO ALTO</t>
+          <t>Tampico Alto</t>
         </is>
       </c>
       <c r="C723">
@@ -9918,7 +9918,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>TANTOYUCA</t>
+          <t>Tantoyuca</t>
         </is>
       </c>
       <c r="C724">
@@ -9931,7 +9931,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>TATATILA</t>
+          <t>Tatatila</t>
         </is>
       </c>
       <c r="C725">
@@ -9944,7 +9944,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>TECOLUTLA</t>
+          <t>Tecolutla</t>
         </is>
       </c>
       <c r="C726">
@@ -9957,7 +9957,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>TEMPOAL</t>
+          <t>Tempoal</t>
         </is>
       </c>
       <c r="C727">
@@ -9970,7 +9970,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>TEOCELO</t>
+          <t>Teocelo</t>
         </is>
       </c>
       <c r="C728">
@@ -9983,7 +9983,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C729">
@@ -9996,7 +9996,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C730">
@@ -10009,7 +10009,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>TIHUATLÁN</t>
+          <t>Tihuatlán</t>
         </is>
       </c>
       <c r="C731">
@@ -10022,7 +10022,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C732">
@@ -10035,7 +10035,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>TLALTETELA</t>
+          <t>Tlaltetela</t>
         </is>
       </c>
       <c r="C733">
@@ -10048,7 +10048,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>Tlapacoyan</t>
         </is>
       </c>
       <c r="C734">
@@ -10061,7 +10061,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>TOTUTLA</t>
+          <t>Totutla</t>
         </is>
       </c>
       <c r="C735">
@@ -10074,7 +10074,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C736">
@@ -10087,7 +10087,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>URSULO GALVÁN</t>
+          <t>Ursulo Galván</t>
         </is>
       </c>
       <c r="C737">
@@ -10100,7 +10100,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>UXPANAPA</t>
+          <t>Uxpanapa</t>
         </is>
       </c>
       <c r="C738">
@@ -10113,7 +10113,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>VEGA DE ALATORRE</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C739">
@@ -10126,7 +10126,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C740">
@@ -10139,7 +10139,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C741">
@@ -10152,7 +10152,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>XOXOCOTLA</t>
+          <t>Xoxocotla</t>
         </is>
       </c>
       <c r="C742">
@@ -10165,7 +10165,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C743">
@@ -10178,7 +10178,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>ÁLAMO TEMAPACHE</t>
+          <t>Álamo Temapache</t>
         </is>
       </c>
       <c r="C744">
@@ -10191,7 +10191,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C745">
@@ -10204,12 +10204,12 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C746">
@@ -10222,7 +10222,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>TICUL</t>
+          <t>Ticul</t>
         </is>
       </c>
       <c r="C747">
@@ -10235,7 +10235,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>TIXPÉHUAL</t>
+          <t>Tixpéhual</t>
         </is>
       </c>
       <c r="C748">
@@ -10248,7 +10248,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C749">
@@ -10261,12 +10261,12 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>APOZOL</t>
+          <t>Apozol</t>
         </is>
       </c>
       <c r="C750">
@@ -10279,7 +10279,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>CALERA</t>
+          <t>Calera</t>
         </is>
       </c>
       <c r="C751">
@@ -10292,7 +10292,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>CAÑITAS DE FELIPE PESCADOR</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C752">
@@ -10305,7 +10305,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C753">
@@ -10318,7 +10318,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>GENERAL PÁNFILO NATERA</t>
+          <t>General Pánfilo Natera</t>
         </is>
       </c>
       <c r="C754">
@@ -10331,7 +10331,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C755">
@@ -10344,7 +10344,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>JALPA</t>
+          <t>Jalpa</t>
         </is>
       </c>
       <c r="C756">
@@ -10357,7 +10357,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>JEREZ</t>
+          <t>Jerez</t>
         </is>
       </c>
       <c r="C757">
@@ -10370,7 +10370,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>JIMÉNEZ DEL TEUL</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C758">
@@ -10383,7 +10383,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>JUCHIPILA</t>
+          <t>Juchipila</t>
         </is>
       </c>
       <c r="C759">
@@ -10396,7 +10396,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>Loreto</t>
         </is>
       </c>
       <c r="C760">
@@ -10409,7 +10409,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C761">
@@ -10422,7 +10422,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C762">
@@ -10435,7 +10435,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C763">
@@ -10448,7 +10448,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>SAIN ALTO</t>
+          <t>Sain Alto</t>
         </is>
       </c>
       <c r="C764">
@@ -10461,7 +10461,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C765">
@@ -10474,7 +10474,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="C766">
@@ -10487,7 +10487,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>TEPECHITLÁN</t>
+          <t>Tepechitlán</t>
         </is>
       </c>
       <c r="C767">
@@ -10500,7 +10500,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>VETAGRANDE</t>
+          <t>Vetagrande</t>
         </is>
       </c>
       <c r="C768">
@@ -10513,7 +10513,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>VILLA GONZÁLEZ ORTEGA</t>
+          <t>Villa González Ortega</t>
         </is>
       </c>
       <c r="C769">
@@ -10526,7 +10526,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C770">
@@ -10539,7 +10539,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>VILLANUEVA</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="C771">
@@ -10552,7 +10552,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C772">
@@ -10565,7 +10565,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C773">
@@ -10578,7 +10578,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C774">
@@ -10586,41 +10586,6 @@
       </c>
       <c r="D774">
         <v>1</v>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/LOUISIANA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/LOUISIANA_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Hecelchakán</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Hopelchén</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Altamirano</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Amatán</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Benemérito De Las Américas</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Coapilla</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Francisco León</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Ixtacomitán</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Jiquipilas</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Marqués De Comillas</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Oxchuc</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Pueblo Nuevo Solistahuacán</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -1120,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -1133,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Soyaló</t>
@@ -1146,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Sunuapa</t>
@@ -1159,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -1172,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tapilula</t>
@@ -1185,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -1198,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tila</t>
@@ -1211,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1224,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -1237,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -1250,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -1263,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -1276,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -1289,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -1302,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1333,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1346,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Coronado</t>
@@ -1359,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1372,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -1385,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -1398,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1411,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -1424,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Matachí</t>
@@ -1437,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -1450,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -1463,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Uruachi</t>
@@ -1476,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1507,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1520,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1533,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1546,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1559,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1572,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1585,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1598,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1611,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1624,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1637,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1650,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1663,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1676,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1689,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1720,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1733,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1746,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -1759,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -1772,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1785,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -1798,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Parras</t>
@@ -1811,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Ramos Arizpe</t>
@@ -1824,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Sabinas</t>
@@ -1837,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1850,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>San Buenaventura</t>
@@ -1863,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -1876,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1889,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1902,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1933,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Coquimatlán</t>
@@ -1946,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1959,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -2094,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>San Juan De Guadalupe</t>
@@ -2107,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -2120,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -2133,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2164,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Acolman</t>
@@ -2177,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -2190,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -2203,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -2216,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -2229,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -2242,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Ayapango</t>
@@ -2255,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -2268,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -2281,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -2294,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Huixquilucan</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>San Martín De Las Pirámides</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2476,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -2489,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -2502,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Teotihuacán</t>
@@ -2515,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Tepetlaoxtoc</t>
@@ -2528,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Tepetlixpa</t>
@@ -2541,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -2554,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2567,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -2580,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2593,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -2606,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -2619,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Villa De Allende</t>
@@ -2632,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Villa Del Carbón</t>
@@ -2645,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Zacazonapan</t>
@@ -2658,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -2671,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2702,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2715,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2728,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2741,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -2754,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -2767,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -2780,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -2793,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2806,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2819,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2832,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>León</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2923,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -2936,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2949,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -2962,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -2975,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2988,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -3001,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -3014,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -3027,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Tarandacuao</t>
@@ -3040,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -3053,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -3066,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -3079,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -3092,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -3105,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3136,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -3149,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -3162,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -3175,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -3188,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -3201,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -3214,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -3227,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -3240,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -3253,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -3266,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -3279,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Cochoapa El Grande</t>
@@ -3292,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -3305,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -3318,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -3331,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -3344,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -3357,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Cuautepec</t>
@@ -3370,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -3383,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -3396,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -3409,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -3422,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -3435,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -3448,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -3461,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -3474,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>La Unión De Isidoro Montes De Oca</t>
@@ -3487,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -3500,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -3513,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -3526,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -3539,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -3552,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -3565,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -3578,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -3591,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -3604,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -3617,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -3630,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -3643,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -3656,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -3669,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -3682,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -3695,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -3708,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -3721,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -3734,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -3747,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -3760,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3791,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -3804,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -3817,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -3830,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -3843,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -3856,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -3869,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Huazalingo</t>
@@ -3882,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -3895,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3908,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -3921,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Juárez Hidalgo</t>
@@ -3934,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>La Misión</t>
@@ -3947,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -3960,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -3973,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -3986,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -3999,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Nicolás Flores</t>
@@ -4012,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -4025,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -4038,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -4051,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -4064,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>San Agustín Metzquititlán</t>
@@ -4077,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -4090,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>San Felipe Orizatlán</t>
@@ -4103,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Singuilucan</t>
@@ -4116,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -4129,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -4142,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -4155,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -4168,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Tepeji Del Río De Ocampo</t>
@@ -4181,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Tezontepec De Aldama</t>
@@ -4194,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -4207,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -4220,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -4233,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Tlaxcoapan</t>
@@ -4246,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -4259,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Villa De Tezontepec</t>
@@ -4272,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -4285,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4316,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -4329,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -4342,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -4355,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -4368,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -4381,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -4394,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -4407,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -4420,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -4433,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -4446,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Jilotlán De Los Dolores</t>
@@ -4459,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -4472,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -4485,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -4498,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -4511,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -4524,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -4537,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -4550,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Talpa De Allende</t>
@@ -4563,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -4576,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -4589,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -4602,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -4615,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -4628,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Tonila</t>
@@ -4641,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -4654,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -4667,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Yahualica De González Gallo</t>
@@ -4680,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -4693,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4724,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -4737,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -4750,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -4763,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -4776,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -4789,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Gabriel Zamora</t>
@@ -4802,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -4815,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -4828,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Ixtlán</t>
@@ -4841,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -4854,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -4867,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -4880,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -4893,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -4906,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -4919,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -4932,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Nuevo Parangaricutiro</t>
@@ -4945,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -4958,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -4971,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -4984,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -4997,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -5010,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -5023,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -5036,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -5049,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -5062,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Tanhuato</t>
@@ -5075,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -5088,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -5101,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Tingambato</t>
@@ -5114,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -5127,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -5140,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -5153,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -5166,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -5179,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Vista Hermosa</t>
@@ -5192,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -5205,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -5218,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -5231,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5262,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -5275,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -5288,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Jantetelco</t>
@@ -5301,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -5314,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -5327,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -5340,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -5353,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -5366,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -5379,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5410,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -5423,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -5436,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -5449,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -5462,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5493,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Cerralvo</t>
@@ -5506,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>China</t>
@@ -5519,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -5532,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>General Terán</t>
@@ -5545,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -5558,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -5571,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Mier Y Noriega</t>
@@ -5584,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Mina</t>
@@ -5597,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Montemorelos</t>
@@ -5610,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -5623,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -5636,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>San Pedro Garza García</t>
@@ -5649,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Santiago</t>
@@ -5662,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Vallecillo</t>
@@ -5675,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5706,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>El Barrio De La Soledad</t>
@@ -5719,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -5732,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -5745,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -5758,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -5771,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -5784,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Nejapa De Madero</t>
@@ -5797,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -5810,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -5823,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -5836,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -5849,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -5862,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -5875,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>San Baltazar Loxicha</t>
@@ -5888,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>San Dionisio Ocotepec</t>
@@ -5901,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -5914,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>San Francisco Ixhuatán</t>
@@ -5927,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>San Jerónimo Taviche</t>
@@ -5940,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>San José Chiltepec</t>
@@ -5953,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>San Juan Bautista Atatlahuca</t>
@@ -5966,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>San Juan Bautista Coixtlahuaca</t>
@@ -5979,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -5992,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -6005,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>San Juan Cieneguilla</t>
@@ -6018,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>San Juan Colorado</t>
@@ -6031,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>San Juan Cotzocón</t>
@@ -6044,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -6057,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -6070,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>San Juan Lachigalla</t>
@@ -6083,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -6096,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -6109,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>San Juan Teita</t>
@@ -6122,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>San Juan Tepeuxila</t>
@@ -6135,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>San Luis Amatlán</t>
@@ -6148,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>San Martín De Los Cansecos</t>
@@ -6161,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -6174,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -6187,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>San Miguel Tilquiápam</t>
@@ -6200,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>San Nicolás</t>
@@ -6213,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>San Pedro Jicayán</t>
@@ -6226,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -6239,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -6252,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>San Pedro Taviche</t>
@@ -6265,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>San Pedro Teutila</t>
@@ -6278,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -6291,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Santa María Chimalapa</t>
@@ -6304,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Santa María Nativitas</t>
@@ -6317,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Santa María Tlahuitoltepec</t>
@@ -6330,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Santa María Tlalixtac</t>
@@ -6343,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -6356,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Santa María Totolapilla</t>
@@ -6369,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -6382,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Santa María Zoquitlán</t>
@@ -6395,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -6408,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -6421,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -6434,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Santiago Tetepec</t>
@@ -6447,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Santiago Yaitepec</t>
@@ -6460,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -6473,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -6486,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Santo Domingo Tepuxtepec</t>
@@ -6499,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -6512,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Totontepec Villa De Morelos</t>
@@ -6525,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -6538,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -6551,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -6564,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6595,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -6608,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Aquixtla</t>
@@ -6621,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Atempan</t>
@@ -6634,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -6647,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Atoyatempan</t>
@@ -6660,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Ayotoxco De Guerrero</t>
@@ -6673,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -6686,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Chapulco</t>
@@ -6699,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -6712,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -6725,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -6738,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -6751,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Cohetzala</t>
@@ -6764,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Cuetzalan Del Progreso</t>
@@ -6777,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -6790,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -6803,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -6816,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -6829,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -6842,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Hueyapan</t>
@@ -6855,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -6868,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -6881,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -6894,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Jalpan</t>
@@ -6907,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -6920,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Jonotla</t>
@@ -6933,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -6946,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Juan Galindo</t>
@@ -6959,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -6972,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Naupan</t>
@@ -6985,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Oriental</t>
@@ -6998,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Pahuatlán</t>
@@ -7011,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -7024,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -7037,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -7050,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -7063,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -7076,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -7089,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -7102,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>San Matías Tlalancaleca</t>
@@ -7115,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -7128,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -7141,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -7154,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -7167,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -7180,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Tepeyahualco</t>
@@ -7193,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Tepeyahualco De Cuauhtémoc</t>
@@ -7206,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -7219,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -7232,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -7245,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -7258,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -7271,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -7284,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -7297,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -7310,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Zacapala</t>
@@ -7323,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -7336,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -7349,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -7362,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>Zihuateutla</t>
@@ -7375,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Zoquitlán</t>
@@ -7388,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7419,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Arroyo Seco</t>
@@ -7432,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -7445,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -7458,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Corregidora</t>
@@ -7471,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -7484,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -7497,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -7510,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -7523,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -7536,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -7549,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -7562,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7593,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Cozumel</t>
@@ -7606,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>José María Morelos</t>
@@ -7619,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Othón P. Blanco</t>
@@ -7632,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7663,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Alaquines</t>
@@ -7676,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Aquismón</t>
@@ -7689,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Axtla De Terrazas</t>
@@ -7702,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -7715,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -7728,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -7741,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -7754,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -7767,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -7780,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -7793,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -7806,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -7819,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -7832,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -7845,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Moctezuma</t>
@@ -7858,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -7871,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -7884,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -7897,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -7910,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>San Martín Chalchicuautla</t>
@@ -7923,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -7936,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>San Vicente Tancuayalab</t>
@@ -7949,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -7962,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -7975,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -7988,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -8001,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -8014,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Tancanhuitz</t>
@@ -8027,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Tanlajás</t>
@@ -8040,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -8053,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Venado</t>
@@ -8066,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Villa De Arriaga</t>
@@ -8079,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Villa De Guadalupe</t>
@@ -8092,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -8105,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -8118,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Villa Juárez</t>
@@ -8131,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -8144,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -8157,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8188,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -8201,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -8214,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -8227,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -8240,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -8253,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -8266,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -8279,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -8292,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -8305,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8336,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Carbó</t>
@@ -8349,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -8362,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -8375,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>San Luis Río Colorado</t>
@@ -8388,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8419,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Centla</t>
@@ -8432,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -8445,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -8458,6 +11378,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -8471,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -8484,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -8497,6 +11432,11 @@
       </c>
     </row>
     <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B616" t="inlineStr">
         <is>
           <t>Jalapa</t>
@@ -8510,6 +11450,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>Jalpa De Méndez</t>
@@ -8523,6 +11468,11 @@
       </c>
     </row>
     <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B618" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -8536,6 +11486,11 @@
       </c>
     </row>
     <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B619" t="inlineStr">
         <is>
           <t>Paraíso</t>
@@ -8549,6 +11504,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -8562,6 +11522,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8593,6 +11558,11 @@
       </c>
     </row>
     <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B623" t="inlineStr">
         <is>
           <t>Aldama</t>
@@ -8606,6 +11576,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>Altamira</t>
@@ -8619,6 +11594,11 @@
       </c>
     </row>
     <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B625" t="inlineStr">
         <is>
           <t>Burgos</t>
@@ -8632,6 +11612,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>Bustamante</t>
@@ -8645,6 +11630,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -8658,6 +11648,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -8671,6 +11666,11 @@
       </c>
     </row>
     <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B629" t="inlineStr">
         <is>
           <t>González</t>
@@ -8684,6 +11684,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Gustavo Díaz Ordaz</t>
@@ -8697,6 +11702,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -8710,6 +11720,11 @@
       </c>
     </row>
     <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B632" t="inlineStr">
         <is>
           <t>Llera</t>
@@ -8723,6 +11738,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -8736,6 +11756,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>Miguel Alemán</t>
@@ -8749,6 +11774,11 @@
       </c>
     </row>
     <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B635" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -8762,6 +11792,11 @@
       </c>
     </row>
     <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B636" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -8775,6 +11810,11 @@
       </c>
     </row>
     <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B637" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -8788,6 +11828,11 @@
       </c>
     </row>
     <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B638" t="inlineStr">
         <is>
           <t>San Fernando</t>
@@ -8801,6 +11846,11 @@
       </c>
     </row>
     <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B639" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -8814,6 +11864,11 @@
       </c>
     </row>
     <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -8827,6 +11882,11 @@
       </c>
     </row>
     <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B641" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -8840,6 +11900,11 @@
       </c>
     </row>
     <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -8853,6 +11918,11 @@
       </c>
     </row>
     <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr">
         <is>
           <t>Xicoténcatl</t>
@@ -8866,6 +11936,11 @@
       </c>
     </row>
     <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B644" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8897,6 +11972,11 @@
       </c>
     </row>
     <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B646" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -8910,6 +11990,11 @@
       </c>
     </row>
     <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B647" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -8923,6 +12008,11 @@
       </c>
     </row>
     <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B648" t="inlineStr">
         <is>
           <t>Nanacamilpa De Mariano Arista</t>
@@ -8936,6 +12026,11 @@
       </c>
     </row>
     <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B649" t="inlineStr">
         <is>
           <t>Sanctórum De Lázaro Cárdenas</t>
@@ -8949,6 +12044,11 @@
       </c>
     </row>
     <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B650" t="inlineStr">
         <is>
           <t>Tetlatlahuca</t>
@@ -8962,6 +12062,11 @@
       </c>
     </row>
     <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B651" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -8975,6 +12080,11 @@
       </c>
     </row>
     <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B652" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9006,6 +12116,11 @@
       </c>
     </row>
     <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B654" t="inlineStr">
         <is>
           <t>Acayucan</t>
@@ -9019,6 +12134,11 @@
       </c>
     </row>
     <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B655" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -9032,6 +12152,11 @@
       </c>
     </row>
     <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B656" t="inlineStr">
         <is>
           <t>Alpatláhuac</t>
@@ -9045,6 +12170,11 @@
       </c>
     </row>
     <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B657" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -9058,6 +12188,11 @@
       </c>
     </row>
     <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B658" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -9071,6 +12206,11 @@
       </c>
     </row>
     <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B659" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -9084,6 +12224,11 @@
       </c>
     </row>
     <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B660" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -9097,6 +12242,11 @@
       </c>
     </row>
     <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B661" t="inlineStr">
         <is>
           <t>Camarón De Tejeda</t>
@@ -9110,6 +12260,11 @@
       </c>
     </row>
     <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B662" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -9123,6 +12278,11 @@
       </c>
     </row>
     <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B663" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -9136,6 +12296,11 @@
       </c>
     </row>
     <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B664" t="inlineStr">
         <is>
           <t>Cazones De Herrera</t>
@@ -9149,6 +12314,11 @@
       </c>
     </row>
     <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B665" t="inlineStr">
         <is>
           <t>Chicontepec</t>
@@ -9162,6 +12332,11 @@
       </c>
     </row>
     <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B666" t="inlineStr">
         <is>
           <t>Citlaltépetl</t>
@@ -9175,6 +12350,11 @@
       </c>
     </row>
     <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B667" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -9188,6 +12368,11 @@
       </c>
     </row>
     <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B668" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -9201,6 +12386,11 @@
       </c>
     </row>
     <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B669" t="inlineStr">
         <is>
           <t>Colipa</t>
@@ -9214,6 +12404,11 @@
       </c>
     </row>
     <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B670" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -9227,6 +12422,11 @@
       </c>
     </row>
     <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B671" t="inlineStr">
         <is>
           <t>Cosautlán De Carvajal</t>
@@ -9240,6 +12440,11 @@
       </c>
     </row>
     <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B672" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -9253,6 +12458,11 @@
       </c>
     </row>
     <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B673" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -9266,6 +12476,11 @@
       </c>
     </row>
     <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B674" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -9279,6 +12494,11 @@
       </c>
     </row>
     <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B675" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -9292,6 +12512,11 @@
       </c>
     </row>
     <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B676" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -9305,6 +12530,11 @@
       </c>
     </row>
     <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B677" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -9318,6 +12548,11 @@
       </c>
     </row>
     <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B678" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -9331,6 +12566,11 @@
       </c>
     </row>
     <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B679" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -9344,6 +12584,11 @@
       </c>
     </row>
     <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B680" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -9357,6 +12602,11 @@
       </c>
     </row>
     <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B681" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -9370,6 +12620,11 @@
       </c>
     </row>
     <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B682" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -9383,6 +12638,11 @@
       </c>
     </row>
     <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B683" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -9396,6 +12656,11 @@
       </c>
     </row>
     <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B684" t="inlineStr">
         <is>
           <t>Ixcatepec</t>
@@ -9409,6 +12674,11 @@
       </c>
     </row>
     <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B685" t="inlineStr">
         <is>
           <t>Ixhuacán De Los Reyes</t>
@@ -9422,6 +12692,11 @@
       </c>
     </row>
     <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B686" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -9435,6 +12710,11 @@
       </c>
     </row>
     <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B687" t="inlineStr">
         <is>
           <t>Ixhuatlán Del Café</t>
@@ -9448,6 +12728,11 @@
       </c>
     </row>
     <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B688" t="inlineStr">
         <is>
           <t>Ixhuatlán Del Sureste</t>
@@ -9461,6 +12746,11 @@
       </c>
     </row>
     <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B689" t="inlineStr">
         <is>
           <t>Ixtaczoquitlán</t>
@@ -9474,6 +12764,11 @@
       </c>
     </row>
     <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B690" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -9487,6 +12782,11 @@
       </c>
     </row>
     <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B691" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -9500,6 +12800,11 @@
       </c>
     </row>
     <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B692" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -9513,6 +12818,11 @@
       </c>
     </row>
     <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B693" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -9526,6 +12836,11 @@
       </c>
     </row>
     <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B694" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -9539,6 +12854,11 @@
       </c>
     </row>
     <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B695" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -9552,6 +12872,11 @@
       </c>
     </row>
     <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B696" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -9565,6 +12890,11 @@
       </c>
     </row>
     <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B697" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -9578,6 +12908,11 @@
       </c>
     </row>
     <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B698" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -9591,6 +12926,11 @@
       </c>
     </row>
     <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B699" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -9604,6 +12944,11 @@
       </c>
     </row>
     <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B700" t="inlineStr">
         <is>
           <t>Naolinco</t>
@@ -9617,6 +12962,11 @@
       </c>
     </row>
     <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B701" t="inlineStr">
         <is>
           <t>Naranjos Amatlán</t>
@@ -9630,6 +12980,11 @@
       </c>
     </row>
     <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B702" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -9643,6 +12998,11 @@
       </c>
     </row>
     <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B703" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -9656,6 +13016,11 @@
       </c>
     </row>
     <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B704" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -9669,6 +13034,11 @@
       </c>
     </row>
     <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B705" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -9682,6 +13052,11 @@
       </c>
     </row>
     <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B706" t="inlineStr">
         <is>
           <t>Ozuluama De Mascareñas</t>
@@ -9695,6 +13070,11 @@
       </c>
     </row>
     <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B707" t="inlineStr">
         <is>
           <t>Pajapan</t>
@@ -9708,6 +13088,11 @@
       </c>
     </row>
     <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B708" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -9721,6 +13106,11 @@
       </c>
     </row>
     <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B709" t="inlineStr">
         <is>
           <t>Paso Del Macho</t>
@@ -9734,6 +13124,11 @@
       </c>
     </row>
     <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B710" t="inlineStr">
         <is>
           <t>Perote</t>
@@ -9747,6 +13142,11 @@
       </c>
     </row>
     <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B711" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -9760,6 +13160,11 @@
       </c>
     </row>
     <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B712" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -9773,6 +13178,11 @@
       </c>
     </row>
     <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B713" t="inlineStr">
         <is>
           <t>Pueblo Viejo</t>
@@ -9786,6 +13196,11 @@
       </c>
     </row>
     <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B714" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -9799,6 +13214,11 @@
       </c>
     </row>
     <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B715" t="inlineStr">
         <is>
           <t>Rafael Lucio</t>
@@ -9812,6 +13232,11 @@
       </c>
     </row>
     <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B716" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -9825,6 +13250,11 @@
       </c>
     </row>
     <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B717" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -9838,6 +13268,11 @@
       </c>
     </row>
     <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B718" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -9851,6 +13286,11 @@
       </c>
     </row>
     <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B719" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -9864,6 +13304,11 @@
       </c>
     </row>
     <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B720" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -9877,6 +13322,11 @@
       </c>
     </row>
     <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B721" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -9890,6 +13340,11 @@
       </c>
     </row>
     <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B722" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -9903,6 +13358,11 @@
       </c>
     </row>
     <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B723" t="inlineStr">
         <is>
           <t>Tampico Alto</t>
@@ -9916,6 +13376,11 @@
       </c>
     </row>
     <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B724" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -9929,6 +13394,11 @@
       </c>
     </row>
     <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B725" t="inlineStr">
         <is>
           <t>Tatatila</t>
@@ -9942,6 +13412,11 @@
       </c>
     </row>
     <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B726" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -9955,6 +13430,11 @@
       </c>
     </row>
     <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B727" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -9968,6 +13448,11 @@
       </c>
     </row>
     <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B728" t="inlineStr">
         <is>
           <t>Teocelo</t>
@@ -9981,6 +13466,11 @@
       </c>
     </row>
     <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B729" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -9994,6 +13484,11 @@
       </c>
     </row>
     <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B730" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -10007,6 +13502,11 @@
       </c>
     </row>
     <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B731" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -10020,6 +13520,11 @@
       </c>
     </row>
     <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B732" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -10033,6 +13538,11 @@
       </c>
     </row>
     <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B733" t="inlineStr">
         <is>
           <t>Tlaltetela</t>
@@ -10046,6 +13556,11 @@
       </c>
     </row>
     <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B734" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -10059,6 +13574,11 @@
       </c>
     </row>
     <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B735" t="inlineStr">
         <is>
           <t>Totutla</t>
@@ -10072,6 +13592,11 @@
       </c>
     </row>
     <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B736" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -10085,6 +13610,11 @@
       </c>
     </row>
     <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B737" t="inlineStr">
         <is>
           <t>Ursulo Galván</t>
@@ -10098,6 +13628,11 @@
       </c>
     </row>
     <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B738" t="inlineStr">
         <is>
           <t>Uxpanapa</t>
@@ -10111,6 +13646,11 @@
       </c>
     </row>
     <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B739" t="inlineStr">
         <is>
           <t>Vega De Alatorre</t>
@@ -10124,6 +13664,11 @@
       </c>
     </row>
     <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B740" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -10137,6 +13682,11 @@
       </c>
     </row>
     <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B741" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -10150,6 +13700,11 @@
       </c>
     </row>
     <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B742" t="inlineStr">
         <is>
           <t>Xoxocotla</t>
@@ -10163,6 +13718,11 @@
       </c>
     </row>
     <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B743" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -10176,6 +13736,11 @@
       </c>
     </row>
     <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B744" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -10189,6 +13754,11 @@
       </c>
     </row>
     <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B745" t="inlineStr">
         <is>
           <t>Total</t>
@@ -10220,6 +13790,11 @@
       </c>
     </row>
     <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B747" t="inlineStr">
         <is>
           <t>Ticul</t>
@@ -10233,6 +13808,11 @@
       </c>
     </row>
     <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B748" t="inlineStr">
         <is>
           <t>Tixpéhual</t>
@@ -10246,6 +13826,11 @@
       </c>
     </row>
     <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B749" t="inlineStr">
         <is>
           <t>Total</t>
@@ -10277,6 +13862,11 @@
       </c>
     </row>
     <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B751" t="inlineStr">
         <is>
           <t>Calera</t>
@@ -10290,6 +13880,11 @@
       </c>
     </row>
     <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B752" t="inlineStr">
         <is>
           <t>Cañitas De Felipe Pescador</t>
@@ -10303,6 +13898,11 @@
       </c>
     </row>
     <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B753" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -10316,6 +13916,11 @@
       </c>
     </row>
     <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B754" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -10329,6 +13934,11 @@
       </c>
     </row>
     <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B755" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -10342,6 +13952,11 @@
       </c>
     </row>
     <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B756" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -10355,6 +13970,11 @@
       </c>
     </row>
     <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B757" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -10368,6 +13988,11 @@
       </c>
     </row>
     <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B758" t="inlineStr">
         <is>
           <t>Jiménez Del Teul</t>
@@ -10381,6 +14006,11 @@
       </c>
     </row>
     <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B759" t="inlineStr">
         <is>
           <t>Juchipila</t>
@@ -10394,6 +14024,11 @@
       </c>
     </row>
     <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B760" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -10407,6 +14042,11 @@
       </c>
     </row>
     <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B761" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -10420,6 +14060,11 @@
       </c>
     </row>
     <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B762" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -10433,6 +14078,11 @@
       </c>
     </row>
     <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B763" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -10446,6 +14096,11 @@
       </c>
     </row>
     <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B764" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -10459,6 +14114,11 @@
       </c>
     </row>
     <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B765" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -10472,6 +14132,11 @@
       </c>
     </row>
     <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B766" t="inlineStr">
         <is>
           <t>Tabasco</t>
@@ -10485,6 +14150,11 @@
       </c>
     </row>
     <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B767" t="inlineStr">
         <is>
           <t>Tepechitlán</t>
@@ -10498,6 +14168,11 @@
       </c>
     </row>
     <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B768" t="inlineStr">
         <is>
           <t>Vetagrande</t>
@@ -10511,6 +14186,11 @@
       </c>
     </row>
     <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B769" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -10524,6 +14204,11 @@
       </c>
     </row>
     <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B770" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -10537,6 +14222,11 @@
       </c>
     </row>
     <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B771" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -10550,6 +14240,11 @@
       </c>
     </row>
     <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B772" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -10563,6 +14258,11 @@
       </c>
     </row>
     <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B773" t="inlineStr">
         <is>
           <t>Total</t>
